--- a/doc/光大证券外部交易接入信息登记表.xlsx
+++ b/doc/光大证券外部交易接入信息登记表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\source\pyotp\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="18075" windowHeight="7770"/>
+    <workbookView xWindow="1650" yWindow="405" windowWidth="18075" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>光大证券外部交易接入信息登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +99,86 @@
   </si>
   <si>
     <t>接入系统对金仕达API接口调用清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳好菜鸟投资管理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好菜鸟期权交易系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_otp_md.pyd,_otp_trd.pyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">marketapi
+"create_MdApi"
+"ReqUserLogout"
+"UnSubscribeMarketData"
+"RegisterFront"
+"Init"
+"ReqUserLogin"
+"Release"
+"GetTradingDay"
+"SubscribeMarketData"
+"RegisterSpi"
+tradeapi
+"CreateTrdApi"
+"GetTradingDay"
+"Init"
+"RegisterFront"
+"RegisterSpi"
+"Release"
+"ReqOrderAction"
+"ReqOrderInsert"
+"ReqQryInstrument"
+"ReqQryInvestor"
+"ReqQryInvestorPosition"
+"ReqQryInvestorPositionDetail"
+"ReqQryInvestorTradeLevel"
+"ReqQryOrder"
+"ReqQryOTPInsCommRate"
+"ReqQryOTPInsMarginRate"
+"ReqQryTrade"
+"ReqQryTradingAccount"
+"ReqUserLogin"
+"ReqUserLogout"
+"SubscribePrivateTopic"
+"SubscribePublicTopic"
+"ReqSettlementInfoConfirm"
+"ReqQrySettlementInfo"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -201,6 +281,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -247,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,9 +367,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +402,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -503,60 +593,70 @@
     <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.75" customHeight="1">
+    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="27.75" customHeight="1">
+    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="27.75" customHeight="1">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="27.75" customHeight="1">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="27.75" customHeight="1">
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="57.75" customHeight="1">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="27.75" customHeight="1">
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="27.75" customHeight="1">
+    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -565,56 +665,64 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="27.75" customHeight="1">
+    <row r="9" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="27.75" customHeight="1">
+    <row r="10" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="27.75" customHeight="1">
+    <row r="11" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="27.75" customHeight="1">
+    <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="27.75" customHeight="1">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="27.75" customHeight="1">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="27.75" customHeight="1">
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -630,12 +738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,12 +751,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
